--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt8a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt8a-Fzd8.xlsx
@@ -537,22 +537,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H2">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I2">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J2">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N2">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q2">
-        <v>1.173734620199555</v>
+        <v>2.530178483898</v>
       </c>
       <c r="R2">
-        <v>10.563611581796</v>
+        <v>22.771606355082</v>
       </c>
       <c r="S2">
-        <v>0.00473301492805126</v>
+        <v>0.007436202120541768</v>
       </c>
       <c r="T2">
-        <v>0.004733014928051262</v>
+        <v>0.007436202120541766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H3">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I3">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J3">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.740964</v>
       </c>
       <c r="O3">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P3">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q3">
-        <v>1.415256279767555</v>
+        <v>3.416938978204</v>
       </c>
       <c r="R3">
-        <v>12.737306517908</v>
+        <v>30.752450803836</v>
       </c>
       <c r="S3">
-        <v>0.005706936631058286</v>
+        <v>0.01004239386161294</v>
       </c>
       <c r="T3">
-        <v>0.00570693663105829</v>
+        <v>0.01004239386161294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H4">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I4">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J4">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N4">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q4">
-        <v>0.01419180349377778</v>
+        <v>0.022265508738</v>
       </c>
       <c r="R4">
-        <v>0.127726231444</v>
+        <v>0.200389578642</v>
       </c>
       <c r="S4">
-        <v>5.722760207976158E-05</v>
+        <v>6.543839667681388E-05</v>
       </c>
       <c r="T4">
-        <v>5.72276020797616E-05</v>
+        <v>6.543839667681385E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H5">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I5">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J5">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N5">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O5">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P5">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q5">
-        <v>1.683753408288778</v>
+        <v>1.15502082259</v>
       </c>
       <c r="R5">
-        <v>15.153780674599</v>
+        <v>10.39518740331</v>
       </c>
       <c r="S5">
-        <v>0.006789635305494409</v>
+        <v>0.003394609647055993</v>
       </c>
       <c r="T5">
-        <v>0.006789635305494411</v>
+        <v>0.003394609647055992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H6">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I6">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J6">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N6">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O6">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P6">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q6">
-        <v>0.01385195277122222</v>
+        <v>0.003566281053</v>
       </c>
       <c r="R6">
-        <v>0.124667574941</v>
+        <v>0.032096529477</v>
       </c>
       <c r="S6">
-        <v>5.585717428843428E-05</v>
+        <v>1.048131066544775E-05</v>
       </c>
       <c r="T6">
-        <v>5.58571742884343E-05</v>
+        <v>1.048131066544775E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H7">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I7">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J7">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N7">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P7">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q7">
-        <v>63.68487334677289</v>
+        <v>117.7573232934627</v>
       </c>
       <c r="R7">
-        <v>573.163860120956</v>
+        <v>1059.815909641164</v>
       </c>
       <c r="S7">
-        <v>0.2568054576000178</v>
+        <v>0.3460891248411512</v>
       </c>
       <c r="T7">
-        <v>0.2568054576000179</v>
+        <v>0.3460891248411511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H8">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I8">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J8">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,22 +939,22 @@
         <v>8.740964</v>
       </c>
       <c r="O8">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P8">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q8">
-        <v>76.78943381162088</v>
+        <v>159.0281438606302</v>
       </c>
       <c r="R8">
-        <v>691.104904304588</v>
+        <v>1431.253294745672</v>
       </c>
       <c r="S8">
-        <v>0.3096488169405906</v>
+        <v>0.4673841897431584</v>
       </c>
       <c r="T8">
-        <v>0.3096488169405908</v>
+        <v>0.4673841897431584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H9">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I9">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J9">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N9">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O9">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P9">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q9">
-        <v>0.7700234725204445</v>
+        <v>1.036261563142667</v>
       </c>
       <c r="R9">
-        <v>6.930211252684001</v>
+        <v>9.326354068283999</v>
       </c>
       <c r="S9">
-        <v>0.003105073777042973</v>
+        <v>0.003045575828866338</v>
       </c>
       <c r="T9">
-        <v>0.003105073777042974</v>
+        <v>0.003045575828866337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H10">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I10">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J10">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N10">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O10">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P10">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q10">
-        <v>91.35763801176545</v>
+        <v>53.7559548790689</v>
       </c>
       <c r="R10">
-        <v>822.218742105889</v>
+        <v>483.8035939116201</v>
       </c>
       <c r="S10">
-        <v>0.3683942324438501</v>
+        <v>0.1579889119314772</v>
       </c>
       <c r="T10">
-        <v>0.3683942324438502</v>
+        <v>0.1579889119314772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H11">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I11">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J11">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N11">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O11">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P11">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q11">
-        <v>0.7515837418945556</v>
+        <v>0.1659786902726667</v>
       </c>
       <c r="R11">
-        <v>6.764253677051</v>
+        <v>1.493808212454</v>
       </c>
       <c r="S11">
-        <v>0.003030716661882872</v>
+        <v>0.0004878118664059061</v>
       </c>
       <c r="T11">
-        <v>0.003030716661882872</v>
+        <v>0.000487811866405906</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H12">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I12">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J12">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N12">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O12">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P12">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q12">
-        <v>2.820388931440889</v>
+        <v>0.4897833479153333</v>
       </c>
       <c r="R12">
-        <v>25.383500382968</v>
+        <v>4.408050131237999</v>
       </c>
       <c r="S12">
-        <v>0.01137305033496474</v>
+        <v>0.001439474722258714</v>
       </c>
       <c r="T12">
-        <v>0.01137305033496475</v>
+        <v>0.001439474722258714</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H13">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I13">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J13">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>8.740964</v>
       </c>
       <c r="O13">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P13">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q13">
-        <v>3.400745856784889</v>
+        <v>0.6614394292804444</v>
       </c>
       <c r="R13">
-        <v>30.606712711064</v>
+        <v>5.952954863524</v>
       </c>
       <c r="S13">
-        <v>0.01371330506033364</v>
+        <v>0.001943972458040815</v>
       </c>
       <c r="T13">
-        <v>0.01371330506033365</v>
+        <v>0.001943972458040815</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H14">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I14">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J14">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N14">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O14">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P14">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q14">
-        <v>0.03410175077244445</v>
+        <v>0.004310081475333333</v>
       </c>
       <c r="R14">
-        <v>0.306915756952</v>
+        <v>0.038790733278</v>
       </c>
       <c r="S14">
-        <v>0.000137513278300696</v>
+        <v>1.26673423280417E-05</v>
       </c>
       <c r="T14">
-        <v>0.000137513278300696</v>
+        <v>1.26673423280417E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H15">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I15">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J15">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N15">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O15">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P15">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q15">
-        <v>4.045922642382445</v>
+        <v>0.2235850035877778</v>
       </c>
       <c r="R15">
-        <v>36.413303781442</v>
+        <v>2.01226503229</v>
       </c>
       <c r="S15">
-        <v>0.01631494201038474</v>
+        <v>0.0006571169932799879</v>
       </c>
       <c r="T15">
-        <v>0.01631494201038475</v>
+        <v>0.0006571169932799878</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H16">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I16">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J16">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N16">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O16">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P16">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q16">
-        <v>0.03328511709755556</v>
+        <v>0.0006903485603333334</v>
       </c>
       <c r="R16">
-        <v>0.299566053878</v>
+        <v>0.006213137043</v>
       </c>
       <c r="S16">
-        <v>0.0001342202516595108</v>
+        <v>2.028936480542232E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001342202516595109</v>
+        <v>2.028936480542232E-06</v>
       </c>
     </row>
   </sheetData>
